--- a/data/재무제표.xlsx
+++ b/data/재무제표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o_ov0\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o_ov0\Desktop\muffin\backend_python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>종목코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -136,139 +136,335 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>KR모터스</t>
+  </si>
+  <si>
+    <t>경방</t>
+  </si>
+  <si>
+    <t>하이트진로</t>
+  </si>
+  <si>
+    <t>CJ대한통운</t>
+  </si>
+  <si>
+    <t>두산</t>
+  </si>
+  <si>
+    <t>성창기업지주</t>
+  </si>
+  <si>
+    <t>대림산업</t>
+  </si>
+  <si>
+    <t>노루홀딩스</t>
+  </si>
+  <si>
+    <t>대원강업</t>
+  </si>
+  <si>
+    <t>중앙에너비스</t>
+  </si>
+  <si>
+    <t>조선내화</t>
+  </si>
+  <si>
+    <t>대동공업</t>
+  </si>
+  <si>
+    <t>CS홀딩스</t>
+  </si>
+  <si>
+    <t>동아쏘시오홀딩스</t>
+  </si>
+  <si>
+    <t>SK하이닉스</t>
+  </si>
+  <si>
+    <t>영풍</t>
+  </si>
+  <si>
+    <t>LS네트웍스</t>
+  </si>
+  <si>
+    <t>이화산업</t>
+  </si>
+  <si>
+    <t>화천기공</t>
+  </si>
+  <si>
+    <t>강남제비스코</t>
+  </si>
+  <si>
+    <t>한화</t>
+  </si>
+  <si>
+    <t>전방</t>
+  </si>
+  <si>
+    <t>DB하이텍</t>
+  </si>
+  <si>
+    <t>페이퍼코리아</t>
+  </si>
+  <si>
+    <t>JW중외제약</t>
+  </si>
+  <si>
+    <t>기아차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼화페인트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한제분</t>
+  </si>
+  <si>
+    <t>금호전기</t>
+  </si>
+  <si>
+    <t>GS글로벌</t>
+  </si>
+  <si>
+    <t>남광토건</t>
+  </si>
+  <si>
+    <t>백광산업</t>
+  </si>
+  <si>
+    <t>SG충방</t>
+  </si>
+  <si>
+    <t>태원물산</t>
+  </si>
+  <si>
+    <t>BYC</t>
+  </si>
+  <si>
+    <t>삼부토건</t>
+  </si>
+  <si>
+    <t>DI동일</t>
+  </si>
+  <si>
+    <t>제일연마</t>
+  </si>
+  <si>
+    <t>금양</t>
+  </si>
+  <si>
+    <t>케이비아이동국실업</t>
+  </si>
+  <si>
+    <t>신영증권</t>
+  </si>
+  <si>
+    <t>대한제당</t>
+  </si>
+  <si>
+    <t>오리온홀딩스</t>
+  </si>
+  <si>
+    <t>000020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000050</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000080</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000180</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000210</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000220</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000270</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000320</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000390</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000430</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000440</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000480</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000490</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000520</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000590</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000640</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000660</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000670</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000680</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000760</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000850</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000880</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000860</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000950</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000990</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001060</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001130</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001210</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001260</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001250</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001340</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001380</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001420</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001460</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001470</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001560</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001530</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001570</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001620</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001630</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001720</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001790</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>2020/06 매출총이익</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KR모터스</t>
-  </si>
-  <si>
-    <t>경방</t>
-  </si>
-  <si>
-    <t>하이트진로</t>
-  </si>
-  <si>
-    <t>CJ대한통운</t>
-  </si>
-  <si>
-    <t>두산</t>
-  </si>
-  <si>
-    <t>성창기업지주</t>
-  </si>
-  <si>
-    <t>대림산업</t>
-  </si>
-  <si>
-    <t>노루홀딩스</t>
-  </si>
-  <si>
-    <t>대원강업</t>
-  </si>
-  <si>
-    <t>중앙에너비스</t>
-  </si>
-  <si>
-    <t>조선내화</t>
-  </si>
-  <si>
-    <t>대동공업</t>
-  </si>
-  <si>
-    <t>CS홀딩스</t>
-  </si>
-  <si>
-    <t>동아쏘시오홀딩스</t>
-  </si>
-  <si>
-    <t>SK하이닉스</t>
-  </si>
-  <si>
-    <t>영풍</t>
-  </si>
-  <si>
-    <t>LS네트웍스</t>
-  </si>
-  <si>
-    <t>이화산업</t>
-  </si>
-  <si>
-    <t>화천기공</t>
-  </si>
-  <si>
-    <t>강남제비스코</t>
-  </si>
-  <si>
-    <t>한화</t>
-  </si>
-  <si>
-    <t>전방</t>
-  </si>
-  <si>
-    <t>DB하이텍</t>
-  </si>
-  <si>
-    <t>페이퍼코리아</t>
-  </si>
-  <si>
-    <t>JW중외제약</t>
-  </si>
-  <si>
-    <t>기아차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼화페인트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대한제분</t>
-  </si>
-  <si>
-    <t>금호전기</t>
-  </si>
-  <si>
-    <t>GS글로벌</t>
-  </si>
-  <si>
-    <t>남광토건</t>
-  </si>
-  <si>
-    <t>백광산업</t>
-  </si>
-  <si>
-    <t>SG충방</t>
-  </si>
-  <si>
-    <t>태원물산</t>
-  </si>
-  <si>
-    <t>BYC</t>
-  </si>
-  <si>
-    <t>삼부토건</t>
-  </si>
-  <si>
-    <t>DI동일</t>
-  </si>
-  <si>
-    <t>제일연마</t>
-  </si>
-  <si>
-    <t>금양</t>
-  </si>
-  <si>
-    <t>케이비아이동국실업</t>
-  </si>
-  <si>
-    <t>신영증권</t>
-  </si>
-  <si>
-    <t>대한제당</t>
-  </si>
-  <si>
-    <t>오리온홀딩스</t>
   </si>
 </sst>
 </file>
@@ -350,29 +546,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -659,7 +843,7 @@
   <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -743,7 +927,7 @@
         <v>25</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>26</v>
@@ -756,16 +940,16 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="1">
         <v>22150</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="1">
         <v>27931470</v>
       </c>
       <c r="E2" s="1">
@@ -777,7 +961,7 @@
       <c r="G2" s="2">
         <v>3672</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>703</v>
       </c>
       <c r="I2" s="2">
@@ -789,7 +973,7 @@
       <c r="K2" s="2">
         <v>3706</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>732</v>
       </c>
       <c r="M2" s="2">
@@ -801,10 +985,10 @@
       <c r="O2" s="2">
         <v>3760</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <v>752</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <v>670</v>
       </c>
       <c r="R2" s="2">
@@ -813,10 +997,10 @@
       <c r="S2" s="2">
         <v>3762</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="2">
         <v>767</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="2">
         <v>698</v>
       </c>
       <c r="V2" s="2">
@@ -825,51 +1009,51 @@
       <c r="W2" s="2">
         <v>3883</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="2">
         <v>771</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>40</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1">
         <v>676</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="1">
         <v>91661018</v>
       </c>
       <c r="E3" s="2">
         <v>417</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>452</v>
       </c>
       <c r="G3" s="2">
         <v>1084</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>632</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>366</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>699</v>
       </c>
       <c r="K3" s="2">
         <v>1549</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>850</v>
       </c>
       <c r="M3" s="2">
         <v>1326</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>352</v>
       </c>
       <c r="O3" s="2">
@@ -878,10 +1062,10 @@
       <c r="P3" s="2">
         <v>1089</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>286</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="2">
         <v>358</v>
       </c>
       <c r="S3" s="2">
@@ -890,10 +1074,10 @@
       <c r="T3" s="2">
         <v>1220</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="2">
         <v>312</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="2">
         <v>595</v>
       </c>
       <c r="W3" s="2">
@@ -904,16 +1088,16 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>50</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
         <v>10850</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="1">
         <v>27415270</v>
       </c>
       <c r="E4" s="2">
@@ -949,10 +1133,10 @@
       <c r="O4" s="2">
         <v>13707</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="3">
         <v>6292</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>740</v>
       </c>
       <c r="R4" s="2">
@@ -964,7 +1148,7 @@
       <c r="T4" s="2">
         <v>6734</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="2">
         <v>862</v>
       </c>
       <c r="V4" s="2">
@@ -978,16 +1162,16 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>80</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1">
         <v>38700</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1">
         <v>70133611</v>
       </c>
       <c r="E5" s="2">
@@ -1052,16 +1236,16 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>100</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="1">
         <v>65800</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="1">
         <v>66856810</v>
       </c>
       <c r="E6" s="2">
@@ -1126,16 +1310,16 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>120</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1">
         <v>148000</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="1">
         <v>22812344</v>
       </c>
       <c r="E7" s="2">
@@ -1200,16 +1384,16 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>150</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1">
         <v>42050</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="1">
         <v>16523835</v>
       </c>
       <c r="E8" s="2">
@@ -1274,16 +1458,16 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>180</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="A9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
         <v>1575</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="1">
         <v>69751600</v>
       </c>
       <c r="E9" s="2">
@@ -1322,7 +1506,7 @@
       <c r="P9" s="2">
         <v>1779</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="2">
         <v>402</v>
       </c>
       <c r="R9" s="2">
@@ -1334,7 +1518,7 @@
       <c r="T9" s="2">
         <v>1733</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="2">
         <v>423</v>
       </c>
       <c r="V9" s="2">
@@ -1348,16 +1532,16 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>210</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1">
         <v>78800</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="1">
         <v>34800000</v>
       </c>
       <c r="E10" s="2">
@@ -1422,90 +1606,90 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>220</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="1">
         <v>17950</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="1">
         <v>6902772</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>629</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>828</v>
       </c>
       <c r="G11" s="2">
         <v>1215</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>387</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="3">
         <v>831</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="3">
         <v>869</v>
       </c>
       <c r="K11" s="2">
         <v>1352</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>484</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>909</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="2">
         <v>905</v>
       </c>
       <c r="O11" s="2">
         <v>1377</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>472</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="2">
         <v>232</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="2">
         <v>907</v>
       </c>
       <c r="S11" s="2">
         <v>1402</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="2">
         <v>496</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="2">
         <v>247</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="2">
         <v>909</v>
       </c>
       <c r="W11" s="2">
         <v>1529</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11" s="2">
         <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>270</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1">
         <v>41300</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="1">
         <v>405363347</v>
       </c>
       <c r="E12" s="2">
@@ -1570,25 +1754,25 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>320</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="A13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1">
         <v>9100</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="1">
         <v>13291151</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="3">
         <v>7713</v>
       </c>
       <c r="F13" s="2">
         <v>5775</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="3">
         <v>9886</v>
       </c>
       <c r="H13" s="2">
@@ -1624,7 +1808,7 @@
       <c r="R13" s="2">
         <v>5663</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="3">
         <v>10423</v>
       </c>
       <c r="T13" s="2">
@@ -1644,16 +1828,16 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>390</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="A14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1">
         <v>4845</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="1">
         <v>26438751</v>
       </c>
       <c r="E14" s="2">
@@ -1686,7 +1870,7 @@
       <c r="N14" s="2">
         <v>2822</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="3">
         <v>5606</v>
       </c>
       <c r="P14" s="2">
@@ -1718,16 +1902,16 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>430</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1">
         <v>3050</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="1">
         <v>62000000</v>
       </c>
       <c r="E15" s="2">
@@ -1792,90 +1976,90 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>440</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7870</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6227130</v>
+      </c>
+      <c r="E16" s="2">
+        <v>708</v>
+      </c>
+      <c r="F16" s="2">
+        <v>452</v>
+      </c>
+      <c r="G16" s="2">
+        <v>605</v>
+      </c>
+      <c r="H16" s="2">
+        <v>153</v>
+      </c>
+      <c r="I16" s="2">
+        <v>761</v>
+      </c>
+      <c r="J16" s="2">
+        <v>453</v>
+      </c>
+      <c r="K16" s="2">
+        <v>587</v>
+      </c>
+      <c r="L16" s="2">
+        <v>135</v>
+      </c>
+      <c r="M16" s="2">
+        <v>657</v>
+      </c>
+      <c r="N16" s="2">
+        <v>451</v>
+      </c>
+      <c r="O16" s="2">
+        <v>616</v>
+      </c>
+      <c r="P16" s="2">
+        <v>165</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>145</v>
+      </c>
+      <c r="R16" s="2">
+        <v>444</v>
+      </c>
+      <c r="S16" s="2">
+        <v>594</v>
+      </c>
+      <c r="T16" s="2">
+        <v>150</v>
+      </c>
+      <c r="U16" s="2">
+        <v>127</v>
+      </c>
+      <c r="V16" s="2">
+        <v>446</v>
+      </c>
+      <c r="W16" s="2">
+        <v>597</v>
+      </c>
+      <c r="X16" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="5">
-        <v>7870</v>
-      </c>
-      <c r="D16" s="5">
-        <v>6227130</v>
-      </c>
-      <c r="E16" s="3">
-        <v>708</v>
-      </c>
-      <c r="F16" s="3">
-        <v>452</v>
-      </c>
-      <c r="G16" s="3">
-        <v>605</v>
-      </c>
-      <c r="H16" s="3">
-        <v>153</v>
-      </c>
-      <c r="I16" s="3">
-        <v>761</v>
-      </c>
-      <c r="J16" s="3">
-        <v>453</v>
-      </c>
-      <c r="K16" s="3">
-        <v>587</v>
-      </c>
-      <c r="L16" s="3">
-        <v>135</v>
-      </c>
-      <c r="M16" s="3">
-        <v>657</v>
-      </c>
-      <c r="N16" s="3">
-        <v>451</v>
-      </c>
-      <c r="O16" s="3">
-        <v>616</v>
-      </c>
-      <c r="P16" s="3">
-        <v>165</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>145</v>
-      </c>
-      <c r="R16" s="3">
-        <v>444</v>
-      </c>
-      <c r="S16" s="3">
-        <v>594</v>
-      </c>
-      <c r="T16" s="3">
-        <v>150</v>
-      </c>
-      <c r="U16" s="3">
-        <v>127</v>
-      </c>
-      <c r="V16" s="3">
-        <v>446</v>
-      </c>
-      <c r="W16" s="3">
-        <v>597</v>
-      </c>
-      <c r="X16" s="3">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>480</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="C17" s="1">
         <v>72400</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="1">
         <v>4000000</v>
       </c>
       <c r="E17" s="2">
@@ -1940,16 +2124,16 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>490</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1">
         <v>6250</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="1">
         <v>23728210</v>
       </c>
       <c r="E18" s="2">
@@ -1982,7 +2166,7 @@
       <c r="N18" s="2">
         <v>2208</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="3">
         <v>8170</v>
       </c>
       <c r="P18" s="2">
@@ -2014,46 +2198,46 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>520</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="1">
         <v>19950</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="1">
         <v>6500000</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>920</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>512</v>
       </c>
       <c r="G19" s="2">
         <v>1355</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>843</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>946</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>561</v>
       </c>
       <c r="K19" s="2">
         <v>1479</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <v>919</v>
       </c>
       <c r="M19" s="2">
         <v>1211</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="2">
         <v>623</v>
       </c>
       <c r="O19" s="2">
@@ -2062,10 +2246,10 @@
       <c r="P19" s="2">
         <v>1216</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="2">
         <v>324</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="2">
         <v>621</v>
       </c>
       <c r="S19" s="2">
@@ -2074,10 +2258,10 @@
       <c r="T19" s="2">
         <v>1198</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19" s="2">
         <v>294</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19" s="2">
         <v>619</v>
       </c>
       <c r="W19" s="2">
@@ -2088,16 +2272,16 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>590</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="A20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1">
         <v>50900</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="1">
         <v>1154482</v>
       </c>
       <c r="E20" s="2">
@@ -2109,7 +2293,7 @@
       <c r="G20" s="2">
         <v>3024</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>330</v>
       </c>
       <c r="I20" s="2">
@@ -2121,7 +2305,7 @@
       <c r="K20" s="2">
         <v>3044</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <v>297</v>
       </c>
       <c r="M20" s="2">
@@ -2133,10 +2317,10 @@
       <c r="O20" s="2">
         <v>3143</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="2">
         <v>281</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="2">
         <v>347</v>
       </c>
       <c r="R20" s="2">
@@ -2145,10 +2329,10 @@
       <c r="S20" s="2">
         <v>3209</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="2">
         <v>303</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="2">
         <v>343</v>
       </c>
       <c r="V20" s="2">
@@ -2157,21 +2341,21 @@
       <c r="W20" s="2">
         <v>3233</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20" s="2">
         <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>640</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="A21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1">
         <v>97800</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="1">
         <v>6138297</v>
       </c>
       <c r="E21" s="2">
@@ -2201,7 +2385,7 @@
       <c r="M21" s="2">
         <v>7697</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="3">
         <v>7469</v>
       </c>
       <c r="O21" s="2">
@@ -2236,16 +2420,16 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>660</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1">
         <v>76300</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="1">
         <v>728002365</v>
       </c>
       <c r="E22" s="2">
@@ -2272,7 +2456,7 @@
       <c r="L22" s="2">
         <v>168060</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="3">
         <v>269907</v>
       </c>
       <c r="N22" s="2">
@@ -2310,16 +2494,16 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>670</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="A23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1">
         <v>482500</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="1">
         <v>1842040</v>
       </c>
       <c r="E23" s="2">
@@ -2384,16 +2568,16 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>680</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="A24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1">
         <v>2035</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="1">
         <v>78803016</v>
       </c>
       <c r="E24" s="2">
@@ -2432,7 +2616,7 @@
       <c r="P24" s="2">
         <v>6487</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="2">
         <v>639</v>
       </c>
       <c r="R24" s="2">
@@ -2444,7 +2628,7 @@
       <c r="T24" s="2">
         <v>6596</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="2">
         <v>904</v>
       </c>
       <c r="V24" s="2">
@@ -2458,19 +2642,19 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>760</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="A25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1">
         <v>14100</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="1">
         <v>2800000</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>657</v>
       </c>
       <c r="F25" s="2">
@@ -2479,10 +2663,10 @@
       <c r="G25" s="2">
         <v>2808</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>960</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>691</v>
       </c>
       <c r="J25" s="2">
@@ -2494,7 +2678,7 @@
       <c r="L25" s="2">
         <v>1046</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="2">
         <v>617</v>
       </c>
       <c r="N25" s="2">
@@ -2506,7 +2690,7 @@
       <c r="P25" s="2">
         <v>1048</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="2">
         <v>155</v>
       </c>
       <c r="R25" s="2">
@@ -2518,7 +2702,7 @@
       <c r="T25" s="2">
         <v>1130</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="2">
         <v>110</v>
       </c>
       <c r="V25" s="2">
@@ -2532,16 +2716,16 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>850</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="A26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1">
         <v>30450</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="1">
         <v>2200000</v>
       </c>
       <c r="E26" s="2">
@@ -2553,7 +2737,7 @@
       <c r="G26" s="2">
         <v>3606</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>832</v>
       </c>
       <c r="I26" s="2">
@@ -2565,7 +2749,7 @@
       <c r="K26" s="2">
         <v>3856</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="2">
         <v>976</v>
       </c>
       <c r="M26" s="2">
@@ -2577,10 +2761,10 @@
       <c r="O26" s="2">
         <v>3749</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="2">
         <v>783</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="2">
         <v>440</v>
       </c>
       <c r="R26" s="2">
@@ -2589,10 +2773,10 @@
       <c r="S26" s="2">
         <v>3883</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="2">
         <v>891</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="2">
         <v>418</v>
       </c>
       <c r="V26" s="2">
@@ -2601,21 +2785,21 @@
       <c r="W26" s="2">
         <v>3710</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26" s="2">
         <v>762</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>860</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="A27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1">
         <v>14650</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="1">
         <v>6500000</v>
       </c>
       <c r="E27" s="2">
@@ -2627,7 +2811,7 @@
       <c r="G27" s="2">
         <v>5847</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>998</v>
       </c>
       <c r="I27" s="2">
@@ -2654,7 +2838,7 @@
       <c r="P27" s="2">
         <v>1111</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="2">
         <v>782</v>
       </c>
       <c r="R27" s="2">
@@ -2666,7 +2850,7 @@
       <c r="T27" s="2">
         <v>1276</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="2">
         <v>826</v>
       </c>
       <c r="V27" s="2">
@@ -2680,16 +2864,16 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>880</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="A28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1">
         <v>25400</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="1">
         <v>74958735</v>
       </c>
       <c r="E28" s="2">
@@ -2704,7 +2888,7 @@
       <c r="H28" s="2">
         <v>1442302</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="3">
         <v>487402</v>
       </c>
       <c r="J28" s="2">
@@ -2754,16 +2938,16 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>950</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="A29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1">
         <v>26250</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="1">
         <v>1680000</v>
       </c>
       <c r="E29" s="2">
@@ -2793,7 +2977,7 @@
       <c r="M29" s="2">
         <v>1375</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="2">
         <v>845</v>
       </c>
       <c r="O29" s="2">
@@ -2802,10 +2986,10 @@
       <c r="P29" s="2">
         <v>2421</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="2">
         <v>284</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="2">
         <v>769</v>
       </c>
       <c r="S29" s="2">
@@ -2814,10 +2998,10 @@
       <c r="T29" s="2">
         <v>2500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="2">
         <v>244</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="2">
         <v>724</v>
       </c>
       <c r="W29" s="2">
@@ -2828,16 +3012,16 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>990</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="A30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1">
         <v>36600</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="1">
         <v>44398588</v>
       </c>
       <c r="E30" s="2">
@@ -2902,22 +3086,22 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>1020</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="5">
+      <c r="A31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="1">
         <v>1405</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="1">
         <v>35166280</v>
       </c>
       <c r="E31" s="2">
         <v>5565</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>565</v>
       </c>
       <c r="G31" s="2">
@@ -2929,7 +3113,7 @@
       <c r="I31" s="2">
         <v>4123</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <v>279</v>
       </c>
       <c r="K31" s="2">
@@ -2941,7 +3125,7 @@
       <c r="M31" s="2">
         <v>2656</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="2">
         <v>130</v>
       </c>
       <c r="O31" s="2">
@@ -2950,10 +3134,10 @@
       <c r="P31" s="2">
         <v>6148</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q31" s="2">
         <v>763</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R31" s="2">
         <v>206</v>
       </c>
       <c r="S31" s="2">
@@ -2965,7 +3149,7 @@
       <c r="U31" s="2">
         <v>2024</v>
       </c>
-      <c r="V31" s="3">
+      <c r="V31" s="2">
         <v>269</v>
       </c>
       <c r="W31" s="2">
@@ -2976,16 +3160,16 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>1060</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="A32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="1">
         <v>38200</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="1">
         <v>20920054</v>
       </c>
       <c r="E32" s="2">
@@ -3050,16 +3234,16 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>1130</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="5">
+      <c r="A33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="1">
         <v>165500</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="1">
         <v>1690000</v>
       </c>
       <c r="E33" s="2">
@@ -3124,16 +3308,16 @@
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>1210</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="A34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="1">
         <v>3155</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="1">
         <v>11981820</v>
       </c>
       <c r="E34" s="2">
@@ -3148,10 +3332,10 @@
       <c r="H34" s="2">
         <v>2716</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <v>636</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>347</v>
       </c>
       <c r="K34" s="2">
@@ -3160,54 +3344,54 @@
       <c r="L34" s="2">
         <v>1356</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="2">
         <v>629</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="2">
         <v>169</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="2">
         <v>731</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="2">
         <v>562</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q34" s="2">
         <v>125</v>
       </c>
-      <c r="R34" s="3">
+      <c r="R34" s="2">
         <v>158</v>
       </c>
-      <c r="S34" s="3">
+      <c r="S34" s="2">
         <v>772</v>
       </c>
-      <c r="T34" s="3">
+      <c r="T34" s="2">
         <v>614</v>
       </c>
-      <c r="U34" s="3">
+      <c r="U34" s="2">
         <v>135</v>
       </c>
-      <c r="V34" s="3">
+      <c r="V34" s="2">
         <v>198</v>
       </c>
-      <c r="W34" s="3">
+      <c r="W34" s="2">
         <v>737</v>
       </c>
-      <c r="X34" s="3">
+      <c r="X34" s="2">
         <v>539</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>1250</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="5">
+      <c r="A35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="1">
         <v>1630</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="1">
         <v>82533764</v>
       </c>
       <c r="E35" s="2">
@@ -3267,27 +3451,27 @@
       <c r="W35" s="2">
         <v>11766</v>
       </c>
-      <c r="X35" s="7">
+      <c r="X35" s="3">
         <v>7865</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>1260</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="5">
+      <c r="A36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="1">
         <v>10150</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="1">
         <v>9828611</v>
       </c>
       <c r="E36" s="2">
         <v>1156</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="3">
         <v>433</v>
       </c>
       <c r="G36" s="2">
@@ -3299,19 +3483,19 @@
       <c r="I36" s="2">
         <v>1572</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <v>491</v>
       </c>
       <c r="K36" s="2">
         <v>1489</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="2">
         <v>998</v>
       </c>
       <c r="M36" s="2">
         <v>2362</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="2">
         <v>529</v>
       </c>
       <c r="O36" s="2">
@@ -3320,10 +3504,10 @@
       <c r="P36" s="2">
         <v>1497</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q36" s="2">
         <v>506</v>
       </c>
-      <c r="R36" s="3">
+      <c r="R36" s="2">
         <v>559</v>
       </c>
       <c r="S36" s="2">
@@ -3332,10 +3516,10 @@
       <c r="T36" s="2">
         <v>1441</v>
       </c>
-      <c r="U36" s="3">
+      <c r="U36" s="2">
         <v>576</v>
       </c>
-      <c r="V36" s="3">
+      <c r="V36" s="2">
         <v>564</v>
       </c>
       <c r="W36" s="2">
@@ -3346,16 +3530,16 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>1340</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="5">
+      <c r="A37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="1">
         <v>3510</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="1">
         <v>44918407</v>
       </c>
       <c r="E37" s="2">
@@ -3394,7 +3578,7 @@
       <c r="P37" s="2">
         <v>1615</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q37" s="2">
         <v>436</v>
       </c>
       <c r="R37" s="2">
@@ -3406,7 +3590,7 @@
       <c r="T37" s="2">
         <v>1539</v>
       </c>
-      <c r="U37" s="3">
+      <c r="U37" s="2">
         <v>404</v>
       </c>
       <c r="V37" s="2">
@@ -3420,31 +3604,31 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>1360</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="1">
         <v>3695</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="1">
         <v>61549713</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>419</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>939</v>
       </c>
       <c r="G38" s="2">
         <v>1542</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>603</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="2">
         <v>465</v>
       </c>
       <c r="J38" s="2">
@@ -3453,10 +3637,10 @@
       <c r="K38" s="2">
         <v>1606</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="2">
         <v>290</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="2">
         <v>446</v>
       </c>
       <c r="N38" s="2">
@@ -3465,10 +3649,10 @@
       <c r="O38" s="2">
         <v>1685</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="2">
         <v>257</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q38" s="2">
         <v>134</v>
       </c>
       <c r="R38" s="2">
@@ -3477,10 +3661,10 @@
       <c r="S38" s="2">
         <v>1850</v>
       </c>
-      <c r="T38" s="3">
+      <c r="T38" s="2">
         <v>451</v>
       </c>
-      <c r="U38" s="3">
+      <c r="U38" s="2">
         <v>121</v>
       </c>
       <c r="V38" s="2">
@@ -3489,21 +3673,21 @@
       <c r="W38" s="2">
         <v>1818</v>
       </c>
-      <c r="X38" s="3">
+      <c r="X38" s="2">
         <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>1380</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="5">
+      <c r="A39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="1">
         <v>1780</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="1">
         <v>44964143</v>
       </c>
       <c r="E39" s="2">
@@ -3515,7 +3699,7 @@
       <c r="G39" s="2">
         <v>1974</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>733</v>
       </c>
       <c r="I39" s="2">
@@ -3527,7 +3711,7 @@
       <c r="K39" s="2">
         <v>1996</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="2">
         <v>726</v>
       </c>
       <c r="M39" s="2">
@@ -3539,10 +3723,10 @@
       <c r="O39" s="2">
         <v>2041</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="2">
         <v>740</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="Q39" s="2">
         <v>257</v>
       </c>
       <c r="R39" s="2">
@@ -3551,10 +3735,10 @@
       <c r="S39" s="2">
         <v>2031</v>
       </c>
-      <c r="T39" s="3">
+      <c r="T39" s="2">
         <v>728</v>
       </c>
-      <c r="U39" s="3">
+      <c r="U39" s="2">
         <v>184</v>
       </c>
       <c r="V39" s="2">
@@ -3563,95 +3747,95 @@
       <c r="W39" s="2">
         <v>1970</v>
       </c>
-      <c r="X39" s="3">
+      <c r="X39" s="2">
         <v>681</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>1420</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3315</v>
+      </c>
+      <c r="D40" s="1">
+        <v>7600000</v>
+      </c>
+      <c r="E40" s="2">
+        <v>249</v>
+      </c>
+      <c r="F40" s="2">
+        <v>326</v>
+      </c>
+      <c r="G40" s="2">
+        <v>411</v>
+      </c>
+      <c r="H40" s="2">
+        <v>85</v>
+      </c>
+      <c r="I40" s="2">
+        <v>219</v>
+      </c>
+      <c r="J40" s="2">
+        <v>322</v>
+      </c>
+      <c r="K40" s="2">
+        <v>383</v>
+      </c>
+      <c r="L40" s="3">
+        <v>61</v>
+      </c>
+      <c r="M40" s="2">
+        <v>219</v>
+      </c>
+      <c r="N40" s="2">
+        <v>322</v>
+      </c>
+      <c r="O40" s="2">
+        <v>382</v>
+      </c>
+      <c r="P40" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>45</v>
+      </c>
+      <c r="R40" s="2">
+        <v>313</v>
+      </c>
+      <c r="S40" s="2">
+        <v>380</v>
+      </c>
+      <c r="T40" s="2">
+        <v>67</v>
+      </c>
+      <c r="U40" s="2">
+        <v>39</v>
+      </c>
+      <c r="V40" s="2">
+        <v>315</v>
+      </c>
+      <c r="W40" s="2">
+        <v>377</v>
+      </c>
+      <c r="X40" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="5">
-        <v>3315</v>
-      </c>
-      <c r="D40" s="5">
-        <v>7600000</v>
-      </c>
-      <c r="E40" s="3">
-        <v>249</v>
-      </c>
-      <c r="F40" s="3">
-        <v>326</v>
-      </c>
-      <c r="G40" s="3">
-        <v>411</v>
-      </c>
-      <c r="H40" s="3">
-        <v>85</v>
-      </c>
-      <c r="I40" s="3">
-        <v>219</v>
-      </c>
-      <c r="J40" s="3">
-        <v>322</v>
-      </c>
-      <c r="K40" s="3">
-        <v>383</v>
-      </c>
-      <c r="L40" s="6">
-        <v>61</v>
-      </c>
-      <c r="M40" s="3">
-        <v>219</v>
-      </c>
-      <c r="N40" s="3">
-        <v>322</v>
-      </c>
-      <c r="O40" s="3">
-        <v>382</v>
-      </c>
-      <c r="P40" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>45</v>
-      </c>
-      <c r="R40" s="3">
-        <v>313</v>
-      </c>
-      <c r="S40" s="3">
-        <v>380</v>
-      </c>
-      <c r="T40" s="3">
-        <v>67</v>
-      </c>
-      <c r="U40" s="3">
-        <v>39</v>
-      </c>
-      <c r="V40" s="3">
-        <v>315</v>
-      </c>
-      <c r="W40" s="3">
-        <v>377</v>
-      </c>
-      <c r="X40" s="6">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>1460</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="5">
+      <c r="C41" s="1">
         <v>234500</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="1">
         <v>624615</v>
       </c>
       <c r="E41" s="2">
@@ -3690,7 +3874,7 @@
       <c r="P41" s="2">
         <v>2596</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="2">
         <v>334</v>
       </c>
       <c r="R41" s="2">
@@ -3702,7 +3886,7 @@
       <c r="T41" s="2">
         <v>2541</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U41" s="2">
         <v>470</v>
       </c>
       <c r="V41" s="2">
@@ -3716,16 +3900,16 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>1470</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="A42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="1">
         <v>907</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="1">
         <v>137546368</v>
       </c>
       <c r="E42" s="2">
@@ -3764,7 +3948,7 @@
       <c r="P42" s="2">
         <v>2201</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="2">
         <v>837</v>
       </c>
       <c r="R42" s="2">
@@ -3776,7 +3960,7 @@
       <c r="T42" s="2">
         <v>2322</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="2">
         <v>900</v>
       </c>
       <c r="V42" s="2">
@@ -3790,16 +3974,16 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>1530</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="5">
+      <c r="A43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="1">
         <v>92000</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="1">
         <v>2465609</v>
       </c>
       <c r="E43" s="2">
@@ -3853,7 +4037,7 @@
       <c r="U43" s="2">
         <v>2399</v>
       </c>
-      <c r="V43" s="7">
+      <c r="V43" s="3">
         <v>5411</v>
       </c>
       <c r="W43" s="2">
@@ -3864,96 +4048,96 @@
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>1560</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="5">
+      <c r="A44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="1">
         <v>6260</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="1">
         <v>10000000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>825</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>728</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <v>990</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <v>262</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <v>822</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <v>793</v>
       </c>
       <c r="K44" s="2">
         <v>1015</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="2">
         <v>222</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="2">
         <v>811</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="2">
         <v>840</v>
       </c>
       <c r="O44" s="2">
         <v>1025</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="2">
         <v>185</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="2">
         <v>186</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="2">
         <v>822</v>
       </c>
       <c r="S44" s="2">
         <v>1028</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44" s="2">
         <v>206</v>
       </c>
-      <c r="U44" s="3">
+      <c r="U44" s="2">
         <v>169</v>
       </c>
-      <c r="V44" s="3">
+      <c r="V44" s="2">
         <v>845</v>
       </c>
-      <c r="W44" s="3">
+      <c r="W44" s="2">
         <v>988</v>
       </c>
-      <c r="X44" s="3">
+      <c r="X44" s="2">
         <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>1570</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="5">
+      <c r="A45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="1">
         <v>4010</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="1">
         <v>44048135</v>
       </c>
       <c r="E45" s="2">
         <v>1804</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>576</v>
       </c>
       <c r="G45" s="2">
@@ -3965,7 +4149,7 @@
       <c r="I45" s="2">
         <v>2054</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <v>795</v>
       </c>
       <c r="K45" s="2">
@@ -3977,7 +4161,7 @@
       <c r="M45" s="2">
         <v>1727</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="2">
         <v>683</v>
       </c>
       <c r="O45" s="2">
@@ -3986,10 +4170,10 @@
       <c r="P45" s="2">
         <v>1559</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="2">
         <v>483</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="2">
         <v>764</v>
       </c>
       <c r="S45" s="2">
@@ -3998,10 +4182,10 @@
       <c r="T45" s="2">
         <v>1712</v>
       </c>
-      <c r="U45" s="3">
+      <c r="U45" s="2">
         <v>404</v>
       </c>
-      <c r="V45" s="3">
+      <c r="V45" s="2">
         <v>728</v>
       </c>
       <c r="W45" s="2">
@@ -4012,16 +4196,16 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>1620</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="4">
+      <c r="A46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="1">
         <v>582</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="1">
         <v>66042072</v>
       </c>
       <c r="E46" s="2">
@@ -4086,16 +4270,16 @@
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>1630</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="1">
         <v>121000</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="1">
         <v>5009861</v>
       </c>
       <c r="E47" s="2">
@@ -4160,16 +4344,16 @@
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>1720</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="5">
+      <c r="A48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="1">
         <v>45150</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="1">
         <v>9386237</v>
       </c>
       <c r="E48" s="2">
@@ -4234,16 +4418,16 @@
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>1790</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="5">
+      <c r="A49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="1">
         <v>18600</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="1">
         <v>8969658</v>
       </c>
       <c r="E49" s="2">
@@ -4308,16 +4492,16 @@
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>1800</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="5">
+      <c r="A50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="1">
         <v>13500</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="1">
         <v>62645422</v>
       </c>
       <c r="E50" s="2">
@@ -4350,7 +4534,7 @@
       <c r="N50" s="2">
         <v>33376</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O50" s="3">
         <v>43663</v>
       </c>
       <c r="P50" s="2">

--- a/data/재무제표.xlsx
+++ b/data/재무제표.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>종목코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -464,6 +464,14 @@
   </si>
   <si>
     <t>2020/06 매출총이익</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001820</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼화콘덴서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,6 +522,19 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF464646"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -546,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,6 +578,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -840,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X50"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4565,6 +4595,80 @@
         <v>9582</v>
       </c>
     </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="1">
+        <v>54900</v>
+      </c>
+      <c r="D51" s="4">
+        <v>10395000</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1993</v>
+      </c>
+      <c r="F51" s="5">
+        <v>690</v>
+      </c>
+      <c r="G51" s="5">
+        <v>1377</v>
+      </c>
+      <c r="H51" s="5">
+        <v>687</v>
+      </c>
+      <c r="I51" s="5">
+        <v>2744</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1274</v>
+      </c>
+      <c r="K51" s="5">
+        <v>2200</v>
+      </c>
+      <c r="L51" s="5">
+        <v>927</v>
+      </c>
+      <c r="M51" s="5">
+        <v>2545</v>
+      </c>
+      <c r="N51" s="5">
+        <v>1539</v>
+      </c>
+      <c r="O51" s="5">
+        <v>2148</v>
+      </c>
+      <c r="P51" s="5">
+        <v>609</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>606</v>
+      </c>
+      <c r="R51" s="5">
+        <v>1559</v>
+      </c>
+      <c r="S51" s="5">
+        <v>2235</v>
+      </c>
+      <c r="T51" s="6">
+        <v>675</v>
+      </c>
+      <c r="U51" s="5">
+        <v>562</v>
+      </c>
+      <c r="V51" s="5">
+        <v>1660</v>
+      </c>
+      <c r="W51" s="5">
+        <v>2252</v>
+      </c>
+      <c r="X51" s="5">
+        <v>592</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/재무제표.xlsx
+++ b/data/재무제표.xlsx
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -977,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>22150</v>
+        <v>23450</v>
       </c>
       <c r="D2" s="1">
         <v>27931470</v>
@@ -1051,7 +1051,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="1">
-        <v>676</v>
+        <v>705</v>
       </c>
       <c r="D3" s="1">
         <v>91661018</v>
@@ -1125,7 +1125,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>10850</v>
+        <v>10550</v>
       </c>
       <c r="D4" s="1">
         <v>27415270</v>
@@ -1199,7 +1199,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>38700</v>
+        <v>36900</v>
       </c>
       <c r="D5" s="1">
         <v>70133611</v>
@@ -1273,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>65800</v>
+        <v>67000</v>
       </c>
       <c r="D6" s="1">
         <v>66856810</v>
@@ -1347,7 +1347,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="1">
-        <v>148000</v>
+        <v>151500</v>
       </c>
       <c r="D7" s="1">
         <v>22812344</v>
@@ -1421,7 +1421,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="1">
-        <v>42050</v>
+        <v>46450</v>
       </c>
       <c r="D8" s="1">
         <v>16523835</v>
@@ -1569,7 +1569,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="1">
-        <v>78800</v>
+        <v>86900</v>
       </c>
       <c r="D10" s="1">
         <v>34800000</v>
@@ -1643,7 +1643,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1">
-        <v>17950</v>
+        <v>17000</v>
       </c>
       <c r="D11" s="1">
         <v>6902772</v>
@@ -1717,7 +1717,7 @@
         <v>54</v>
       </c>
       <c r="C12" s="1">
-        <v>41300</v>
+        <v>42450</v>
       </c>
       <c r="D12" s="1">
         <v>405363347</v>
@@ -1791,7 +1791,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="1">
-        <v>9100</v>
+        <v>9160</v>
       </c>
       <c r="D13" s="1">
         <v>13291151</v>
@@ -1865,7 +1865,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="1">
-        <v>4845</v>
+        <v>5180</v>
       </c>
       <c r="D14" s="1">
         <v>26438751</v>
@@ -1939,7 +1939,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="1">
-        <v>3050</v>
+        <v>3120</v>
       </c>
       <c r="D15" s="1">
         <v>62000000</v>
@@ -2013,7 +2013,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="1">
-        <v>7870</v>
+        <v>7750</v>
       </c>
       <c r="D16" s="1">
         <v>6227130</v>
@@ -2087,7 +2087,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="1">
-        <v>72400</v>
+        <v>72100</v>
       </c>
       <c r="D17" s="1">
         <v>4000000</v>
@@ -2235,7 +2235,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1">
-        <v>19950</v>
+        <v>20800</v>
       </c>
       <c r="D19" s="1">
         <v>6500000</v>
@@ -2309,7 +2309,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="1">
-        <v>50900</v>
+        <v>55800</v>
       </c>
       <c r="D20" s="1">
         <v>1154482</v>
@@ -2383,7 +2383,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="1">
-        <v>97800</v>
+        <v>108500</v>
       </c>
       <c r="D21" s="1">
         <v>6138297</v>
@@ -2457,7 +2457,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="1">
-        <v>76300</v>
+        <v>75100</v>
       </c>
       <c r="D22" s="1">
         <v>728002365</v>
@@ -2531,7 +2531,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="1">
-        <v>482500</v>
+        <v>489500</v>
       </c>
       <c r="D23" s="1">
         <v>1842040</v>
@@ -2605,7 +2605,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="1">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="D24" s="1">
         <v>78803016</v>
@@ -2679,7 +2679,7 @@
         <v>46</v>
       </c>
       <c r="C25" s="1">
-        <v>14100</v>
+        <v>14700</v>
       </c>
       <c r="D25" s="1">
         <v>2800000</v>
@@ -2753,7 +2753,7 @@
         <v>47</v>
       </c>
       <c r="C26" s="1">
-        <v>30450</v>
+        <v>30500</v>
       </c>
       <c r="D26" s="1">
         <v>2200000</v>
@@ -2827,7 +2827,7 @@
         <v>48</v>
       </c>
       <c r="C27" s="1">
-        <v>14650</v>
+        <v>15050</v>
       </c>
       <c r="D27" s="1">
         <v>6500000</v>
@@ -2901,7 +2901,7 @@
         <v>49</v>
       </c>
       <c r="C28" s="1">
-        <v>25400</v>
+        <v>27500</v>
       </c>
       <c r="D28" s="1">
         <v>74958735</v>
@@ -2975,7 +2975,7 @@
         <v>50</v>
       </c>
       <c r="C29" s="1">
-        <v>26250</v>
+        <v>28850</v>
       </c>
       <c r="D29" s="1">
         <v>1680000</v>
@@ -3049,7 +3049,7 @@
         <v>51</v>
       </c>
       <c r="C30" s="1">
-        <v>36600</v>
+        <v>35550</v>
       </c>
       <c r="D30" s="1">
         <v>44398588</v>
@@ -3123,7 +3123,7 @@
         <v>52</v>
       </c>
       <c r="C31" s="1">
-        <v>1405</v>
+        <v>1520</v>
       </c>
       <c r="D31" s="1">
         <v>35166280</v>
@@ -3197,7 +3197,7 @@
         <v>53</v>
       </c>
       <c r="C32" s="1">
-        <v>38200</v>
+        <v>38150</v>
       </c>
       <c r="D32" s="1">
         <v>20920054</v>
@@ -3271,7 +3271,7 @@
         <v>56</v>
       </c>
       <c r="C33" s="1">
-        <v>165500</v>
+        <v>171500</v>
       </c>
       <c r="D33" s="1">
         <v>1690000</v>
@@ -3345,7 +3345,7 @@
         <v>57</v>
       </c>
       <c r="C34" s="1">
-        <v>3155</v>
+        <v>3230</v>
       </c>
       <c r="D34" s="1">
         <v>11981820</v>
@@ -3419,7 +3419,7 @@
         <v>58</v>
       </c>
       <c r="C35" s="1">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="D35" s="1">
         <v>82533764</v>
@@ -3493,7 +3493,7 @@
         <v>59</v>
       </c>
       <c r="C36" s="1">
-        <v>10150</v>
+        <v>10000</v>
       </c>
       <c r="D36" s="1">
         <v>9828611</v>
@@ -3567,7 +3567,7 @@
         <v>60</v>
       </c>
       <c r="C37" s="1">
-        <v>3510</v>
+        <v>3405</v>
       </c>
       <c r="D37" s="1">
         <v>44918407</v>
@@ -3641,7 +3641,7 @@
         <v>8</v>
       </c>
       <c r="C38" s="1">
-        <v>3695</v>
+        <v>3955</v>
       </c>
       <c r="D38" s="1">
         <v>61549713</v>
@@ -3715,7 +3715,7 @@
         <v>61</v>
       </c>
       <c r="C39" s="1">
-        <v>1780</v>
+        <v>1880</v>
       </c>
       <c r="D39" s="1">
         <v>44964143</v>
@@ -3789,7 +3789,7 @@
         <v>62</v>
       </c>
       <c r="C40" s="1">
-        <v>3315</v>
+        <v>3420</v>
       </c>
       <c r="D40" s="1">
         <v>7600000</v>
@@ -3863,7 +3863,7 @@
         <v>63</v>
       </c>
       <c r="C41" s="1">
-        <v>234500</v>
+        <v>244000</v>
       </c>
       <c r="D41" s="1">
         <v>624615</v>
@@ -3937,7 +3937,7 @@
         <v>64</v>
       </c>
       <c r="C42" s="1">
-        <v>907</v>
+        <v>952</v>
       </c>
       <c r="D42" s="1">
         <v>137546368</v>
@@ -4011,7 +4011,7 @@
         <v>65</v>
       </c>
       <c r="C43" s="1">
-        <v>92000</v>
+        <v>87700</v>
       </c>
       <c r="D43" s="1">
         <v>2465609</v>
@@ -4085,7 +4085,7 @@
         <v>66</v>
       </c>
       <c r="C44" s="1">
-        <v>6260</v>
+        <v>6360</v>
       </c>
       <c r="D44" s="1">
         <v>10000000</v>
@@ -4159,7 +4159,7 @@
         <v>67</v>
       </c>
       <c r="C45" s="1">
-        <v>4010</v>
+        <v>4300</v>
       </c>
       <c r="D45" s="1">
         <v>44048135</v>
@@ -4233,7 +4233,7 @@
         <v>68</v>
       </c>
       <c r="C46" s="1">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D46" s="1">
         <v>66042072</v>
@@ -4381,7 +4381,7 @@
         <v>69</v>
       </c>
       <c r="C48" s="1">
-        <v>45150</v>
+        <v>46150</v>
       </c>
       <c r="D48" s="1">
         <v>9386237</v>
@@ -4455,7 +4455,7 @@
         <v>70</v>
       </c>
       <c r="C49" s="1">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="D49" s="1">
         <v>8969658</v>
@@ -4529,7 +4529,7 @@
         <v>71</v>
       </c>
       <c r="C50" s="1">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="D50" s="1">
         <v>62645422</v>
@@ -4603,7 +4603,7 @@
         <v>123</v>
       </c>
       <c r="C51" s="1">
-        <v>54900</v>
+        <v>54100</v>
       </c>
       <c r="D51" s="4">
         <v>10395000</v>
